--- a/biology/Mycologie/Rouille_commune_de_la_pomme_de_terre/Rouille_commune_de_la_pomme_de_terre.xlsx
+++ b/biology/Mycologie/Rouille_commune_de_la_pomme_de_terre/Rouille_commune_de_la_pomme_de_terre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Puccinia pittieriana
 La  rouille commune de la pomme de terre est une maladie cryptogamique qui affecte les cultures de pommes de terre et qui est causée par un champignon Basidiomycète, Puccinia pittieriana Henn., de la famille des Pucciniaceae.
